--- a/excel/ fon_it_degree_centrality.xlsx
+++ b/excel/ fon_it_degree_centrality.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -385,7 +385,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5555555555555556</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -395,7 +395,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5555555555555556</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -405,7 +405,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5555555555555556</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -415,7 +415,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6">
@@ -425,7 +425,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7">
@@ -435,47 +435,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Marina Jovanovic Milenkovic</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Marija Bogicevic Sretenovic</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Mina Marjanovic</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Bojan Marceta</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
+        <v>0.6000000000000001</v>
       </c>
     </row>
   </sheetData>
